--- a/src/full/synthetic/final/J10_ver2/summary_0903.xlsx
+++ b/src/full/synthetic/final/J10_ver2/summary_0903.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Dropbox\USC\publication\TBsimulationCode\src\full\synthetic\final\J10_ver2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ACDAE82D-56B7-408E-AE86-6DEE6B5FC0F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7752B1A8-BD34-4739-B328-71AB3B7B00ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,10 +602,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19280249787604387"/>
-          <c:y val="3.7739282589676293E-2"/>
-          <c:w val="0.75522337755322522"/>
-          <c:h val="0.77654867054661647"/>
+          <c:x val="0.15255815005882886"/>
+          <c:y val="4.2829105253106355E-2"/>
+          <c:w val="0.78662299755633991"/>
+          <c:h val="0.75952591534538083"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1997,6 +1997,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43056437642878431"/>
+              <c:y val="0.89404815702385032"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2096,6 +2104,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.161839486817053E-3"/>
+              <c:y val="0.16775259614287344"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2179,10 +2195,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12117397831007665"/>
-          <c:y val="0.49300741755106697"/>
-          <c:w val="0.46745261116496883"/>
-          <c:h val="0.31008010955152349"/>
+          <c:x val="9.5312019187256763E-2"/>
+          <c:y val="0.4359899723753376"/>
+          <c:w val="0.43871707846863978"/>
+          <c:h val="0.34955368505536499"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2245,7 +2261,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
+    <c:pageSetup paperSize="5" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2271,10 +2287,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18135757913834633"/>
-          <c:y val="3.7739282589676293E-2"/>
-          <c:w val="0.76666829629092259"/>
-          <c:h val="0.77654867054661647"/>
+          <c:x val="0.19280249787604387"/>
+          <c:y val="4.3112756600789143E-2"/>
+          <c:w val="0.74377845881552751"/>
+          <c:h val="0.74952703759712158"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3826,6 +3842,7 @@
         <c:crossAx val="715504623"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="200"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3845,10 +3862,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20701086884280831"/>
-          <c:y val="4.856297310662254E-2"/>
+          <c:x val="0.21559455789608145"/>
+          <c:y val="4.8562926289732175E-2"/>
           <c:w val="0.31866866757490059"/>
-          <c:h val="0.33713324964814179"/>
+          <c:h val="0.40848216715385494"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3911,7 +3928,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
+    <c:pageSetup paperSize="5" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3937,10 +3954,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19280249787604387"/>
-          <c:y val="3.7739282589676293E-2"/>
-          <c:w val="0.75522337755322522"/>
-          <c:h val="0.77654867054661647"/>
+          <c:x val="0.17849634945392193"/>
+          <c:y val="4.2970470275373991E-2"/>
+          <c:w val="0.76666829629092259"/>
+          <c:h val="0.7427225557201389"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4992,7 +5009,7 @@
                 </c:marker>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>summary_0826_server_scale5_a1_b!$B$5:$OK$5</c15:sqref>
@@ -5306,7 +5323,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-D6E9-4747-A5C7-ED5E2B13D7D1}"/>
                   </c:ext>
@@ -5601,7 +5618,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
+    <c:pageSetup paperSize="5" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -5627,10 +5644,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18135757913834633"/>
+          <c:x val="0.20386803517789909"/>
           <c:y val="3.7739282589676293E-2"/>
-          <c:w val="0.76666829629092259"/>
-          <c:h val="0.77654867054661647"/>
+          <c:w val="0.74347991704212779"/>
+          <c:h val="0.73654863921212221"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6682,7 +6699,7 @@
                 </c:marker>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>summary_0826_server_scale5_a1_b!$B$13:$GS$13</c15:sqref>
@@ -6996,7 +7013,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-78C8-4277-B68B-2D505FDF5790}"/>
                   </c:ext>
@@ -7291,7 +7308,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
+    <c:pageSetup paperSize="5" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -9525,15 +9542,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9562,16 +9579,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9600,16 +9617,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9639,15 +9656,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9977,7 +9994,7 @@
   <dimension ref="A1:CW14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="W42" sqref="W42"/>
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/full/synthetic/final/J10_ver2/summary_0903.xlsx
+++ b/src/full/synthetic/final/J10_ver2/summary_0903.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Dropbox\USC\publication\TBsimulationCode\src\full\synthetic\final\J10_ver2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Dropbox\USC\publication\DGPUCB\src\full\synthetic\final\J10_ver2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7752B1A8-BD34-4739-B328-71AB3B7B00ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5939741D-BEA1-4EAD-A868-B08C60E1AF7E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2072,7 +2072,7 @@
         <c:axId val="709568335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="14"/>
+          <c:max val="11"/>
           <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3749,6 +3749,7 @@
         <c:axId val="709568335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3862,10 +3863,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21559455789608145"/>
-          <c:y val="4.8562926289732175E-2"/>
-          <c:w val="0.31866866757490059"/>
-          <c:h val="0.40848216715385494"/>
+          <c:x val="0.32718251558863265"/>
+          <c:y val="0.59160939319671135"/>
+          <c:w val="0.60193040633291506"/>
+          <c:h val="0.19214649493316652"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9993,8 +9994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CW14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
